--- a/NformTester/NformTester/keywordscripts/TST1129_DataLoggingForDeviceDataPoints.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST1129_DataLoggingForDeviceDataPoints.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-390" yWindow="90" windowWidth="15600" windowHeight="11760"/>
+    <workbookView xWindow="-390" yWindow="90" windowWidth="15480" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Scripts" sheetId="3" r:id="rId1"/>
@@ -3638,12 +3638,6 @@
     <t>SingleManual</t>
   </si>
   <si>
-    <t>10.146.85.10</t>
-  </si>
-  <si>
-    <t>"ABC GXT UPS"</t>
-  </si>
-  <si>
     <t>"Description for GXT"</t>
   </si>
   <si>
@@ -3682,9 +3676,6 @@
     <t>; The goal of this test is to verify the data logging functionality.</t>
   </si>
   <si>
-    <t>;User should be able to choose the data points to log. The logged data can be used to export the data points to see the values.</t>
-  </si>
-  <si>
     <t>DoubleClickItem</t>
   </si>
   <si>
@@ -3701,16 +3692,30 @@
   </si>
   <si>
     <t>;Repeat step1 and step 2 for other type of device .</t>
-  </si>
-  <si>
-    <t>"Input voltage"</t>
-  </si>
-  <si>
-    <t>"Output voltage"</t>
   </si>
   <si>
     <t>Sashimi</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMPdevice_0$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$GXT_0_NAME$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>;User should be able to choose the data points to log. The logged data can be used to export the data points to see the values.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"System Output Power"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Output Capacity"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4671,8 +4676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4762,7 +4767,7 @@
         <v>755</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -4834,7 +4839,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -4859,7 +4864,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -4920,19 +4925,19 @@
         <v>801</v>
       </c>
       <c r="I8" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>802</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="L8" s="4" t="s">
         <v>803</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="M8" s="4" t="s">
         <v>804</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>805</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>806</v>
       </c>
       <c r="N8" s="13"/>
       <c r="O8" s="12"/>
@@ -4948,7 +4953,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="4"/>
@@ -4969,7 +4974,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>19</v>
@@ -4998,7 +5003,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>19</v>
@@ -5027,7 +5032,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>572</v>
@@ -5039,7 +5044,7 @@
         <v>56</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>803</v>
+        <v>822</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -5058,7 +5063,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>572</v>
@@ -5087,7 +5092,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>514</v>
@@ -5116,7 +5121,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>570</v>
@@ -5145,7 +5150,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E16" s="14" t="s">
         <v>570</v>
@@ -5174,7 +5179,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E17" s="14" t="s">
         <v>570</v>
@@ -5183,10 +5188,10 @@
         <v>571</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="H17" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" s="14">
         <v>0</v>
@@ -5207,7 +5212,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E18" s="14" t="s">
         <v>570</v>
@@ -5216,10 +5221,10 @@
         <v>571</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="H18" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18" s="14">
         <v>0</v>
@@ -5242,7 +5247,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E19" s="14" t="s">
         <v>570</v>
@@ -5271,7 +5276,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>514</v>
@@ -5300,7 +5305,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>572</v>
@@ -5352,7 +5357,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>816</v>
+        <v>823</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -5373,7 +5378,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>19</v>
@@ -5400,7 +5405,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>19</v>
@@ -5427,7 +5432,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>19</v>
@@ -5454,7 +5459,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>701</v>
@@ -5481,7 +5486,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>701</v>
@@ -5508,7 +5513,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>701</v>
@@ -5535,7 +5540,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>701</v>
@@ -5544,10 +5549,10 @@
         <v>711</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
@@ -5564,7 +5569,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>701</v>
@@ -5573,7 +5578,7 @@
         <v>711</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="H31" s="14" t="s">
         <v>824</v>
@@ -5593,7 +5598,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>701</v>
@@ -5620,7 +5625,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -5641,7 +5646,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E34" s="14"/>
       <c r="F34" s="4"/>
@@ -5687,7 +5692,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E36" s="14" t="s">
         <v>19</v>
@@ -5714,7 +5719,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E37" s="14" t="s">
         <v>19</v>
@@ -5741,10 +5746,10 @@
         <v>37</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>573</v>
@@ -5753,7 +5758,7 @@
         <v>3</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
@@ -5770,10 +5775,10 @@
         <v>38</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>178</v>
@@ -5797,7 +5802,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>578</v>
@@ -5824,10 +5829,10 @@
         <v>40</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>95</v>
@@ -18625,7 +18630,7 @@
         <v>137</v>
       </c>
       <c r="AJR3" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="AJS3" t="s">
         <v>4</v>
@@ -21669,7 +21674,7 @@
         <v>5</v>
       </c>
       <c r="AJR4" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="AJS4" t="s">
         <v>5</v>
@@ -26044,7 +26049,7 @@
         <v>7</v>
       </c>
       <c r="AJR6" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="AJS6" t="s">
         <v>7</v>
@@ -26943,7 +26948,7 @@
         <v>8</v>
       </c>
       <c r="ZW7" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="AAA7" t="s">
         <v>8</v>
@@ -27272,17 +27277,17 @@
     </row>
     <row r="11" spans="1:1014">
       <c r="AJR11" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="12" spans="1:1014">
       <c r="AJR12" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="13" spans="1:1014">
       <c r="AJR13" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
     </row>
   </sheetData>

--- a/NformTester/NformTester/keywordscripts/TST1129_DataLoggingForDeviceDataPoints.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST1129_DataLoggingForDeviceDataPoints.xlsx
@@ -1200,7 +1200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7140" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7141" uniqueCount="827">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3698,14 +3698,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMPdevice_0$</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$GXT_0_NAME$</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>;User should be able to choose the data points to log. The logged data can be used to export the data points to see the values.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3715,6 +3707,18 @@
   </si>
   <si>
     <t>"Output Capacity"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_device_0$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_GXT_0_NAME$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Running Range</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4674,10 +4678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4905,9 +4909,9 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="B8" s="3"/>
+        <v>826</v>
+      </c>
+      <c r="B8" s="6"/>
       <c r="C8" s="4">
         <v>7</v>
       </c>
@@ -4925,10 +4929,10 @@
         <v>801</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>802</v>
@@ -4944,11 +4948,9 @@
     </row>
     <row r="9" spans="1:15" ht="15">
       <c r="A9" s="2" t="s">
-        <v>762</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>763</v>
-      </c>
+        <v>761</v>
+      </c>
+      <c r="B9" s="3"/>
       <c r="C9" s="4">
         <v>8</v>
       </c>
@@ -4968,8 +4970,12 @@
       <c r="O9" s="12"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
+      <c r="A10" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>763</v>
+      </c>
       <c r="C10" s="4">
         <v>9</v>
       </c>
@@ -4995,10 +5001,8 @@
       <c r="O10" s="12"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="2" t="s">
-        <v>764</v>
-      </c>
-      <c r="B11" s="11"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="4">
         <v>10</v>
       </c>
@@ -5025,7 +5029,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="4">
@@ -5044,7 +5048,7 @@
         <v>56</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -5056,7 +5060,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="4">
@@ -5085,7 +5089,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="4">
@@ -5114,7 +5118,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="4">
@@ -5143,7 +5147,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="4">
@@ -5171,10 +5175,10 @@
       <c r="O16" s="12"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="2"/>
-      <c r="B17" s="11" t="s">
-        <v>770</v>
-      </c>
+      <c r="A17" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="B17" s="11"/>
       <c r="C17" s="4">
         <v>16</v>
       </c>
@@ -5206,7 +5210,7 @@
     <row r="18" spans="1:15">
       <c r="A18" s="2"/>
       <c r="B18" s="11" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C18" s="4">
         <v>17</v>
@@ -5237,11 +5241,9 @@
       <c r="O18" s="12"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="2" t="s">
-        <v>772</v>
-      </c>
+      <c r="A19" s="2"/>
       <c r="B19" s="11" t="s">
-        <v>763</v>
+        <v>771</v>
       </c>
       <c r="C19" s="4">
         <v>18</v>
@@ -5269,9 +5271,11 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2" t="s">
-        <v>773</v>
-      </c>
-      <c r="B20" s="11"/>
+        <v>772</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>763</v>
+      </c>
       <c r="C20" s="4">
         <v>19</v>
       </c>
@@ -5298,7 +5302,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="4">
@@ -5326,8 +5330,10 @@
       <c r="O21" s="12"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
+      <c r="A22" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="B22" s="11"/>
       <c r="C22" s="4">
         <v>21</v>
       </c>
@@ -5357,7 +5363,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -5552,7 +5558,7 @@
         <v>816</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
@@ -5581,7 +5587,7 @@
         <v>816</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -5899,6 +5905,10 @@
       <c r="B51" s="12"/>
       <c r="O51" s="12"/>
     </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="N2:N41">
